--- a/config_files/Horarios/Palobiofarma, S.L Pamplona/Nerea Castrillo.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Pamplona/Nerea Castrillo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="470">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -9416,21 +9416,20 @@
       </c>
     </row>
     <row r="46" ht="15.6" customHeight="true">
-      <c r="Z46" s="104" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AA46" s="109" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AB46" s="109" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="AC46" s="106" t="n">
-        <v>8.0</v>
-      </c>
+      <c r="Z46" s="104"/>
+      <c r="AA46" s="109"/>
+      <c r="AB46" s="109"/>
+      <c r="AC46" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="T13:V13"/>
     <mergeCell ref="AA40:AC40"/>
     <mergeCell ref="AA33:AC33"/>
     <mergeCell ref="AA34:AC34"/>
@@ -9440,13 +9439,6 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="T32:V32"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/config_files/Horarios/Palobiofarma, S.L Pamplona/Nerea Castrillo.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Pamplona/Nerea Castrillo.xlsx
@@ -4689,7 +4689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="501">
+  <cellXfs count="527">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5835,6 +5835,84 @@
     </xf>
     <xf numFmtId="14" fontId="475" fillId="15" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="center"/>
@@ -11768,6 +11846,7 @@
       <c r="H62" s="400"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -12445,6 +12524,7 @@
       <c r="H62" s="410"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="B58:H62"/>
@@ -13143,6 +13223,7 @@
       <c r="H62" s="416"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -13811,6 +13892,7 @@
       <c r="H62" s="424"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -14009,8 +14091,12 @@
       <c r="B17" s="216">
         <v>2</v>
       </c>
-      <c r="C17" s="217"/>
-      <c r="E17" s="217"/>
+      <c r="C17" s="515" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E17" s="515" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G17" s="214">
         <f>((E17-C17)*24)-1</f>
         <v>-1</v>
@@ -14020,8 +14106,12 @@
       <c r="B18" s="216">
         <v>3</v>
       </c>
-      <c r="C18" s="217"/>
-      <c r="E18" s="217"/>
+      <c r="C18" s="515" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E18" s="515" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G18" s="214">
         <f>((E18-C18)*24)-1</f>
         <v>-1</v>
@@ -14031,8 +14121,12 @@
       <c r="B19" s="216">
         <v>4</v>
       </c>
-      <c r="C19" s="217"/>
-      <c r="E19" s="217"/>
+      <c r="C19" s="515" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E19" s="515" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G19" s="214">
         <f>((E19-C19)*24)-1</f>
         <v>-1</v>
@@ -14042,8 +14136,12 @@
       <c r="B20" s="216">
         <v>5</v>
       </c>
-      <c r="C20" s="217"/>
-      <c r="E20" s="217"/>
+      <c r="C20" s="515" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E20" s="515" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G20" s="214">
         <f>((E20-C20)*24)-1</f>
         <v>-1</v>
@@ -14053,8 +14151,12 @@
       <c r="B21" s="216">
         <v>6</v>
       </c>
-      <c r="C21" s="217"/>
-      <c r="E21" s="217"/>
+      <c r="C21" s="515" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E21" s="515" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G21" s="214">
         <f>((E21-C21)*24)-1</f>
         <v>-1</v>
@@ -14084,8 +14186,12 @@
       <c r="B24" s="216">
         <v>9</v>
       </c>
-      <c r="C24" s="217"/>
-      <c r="E24" s="217"/>
+      <c r="C24" s="515" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E24" s="515" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G24" s="214">
         <f>((E24-C24)*24)-1</f>
         <v>-1</v>
@@ -14095,8 +14201,12 @@
       <c r="B25" s="216">
         <v>10</v>
       </c>
-      <c r="C25" s="217"/>
-      <c r="E25" s="217"/>
+      <c r="C25" s="515" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E25" s="515" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G25" s="214">
         <f>((E25-C25)*24)-1</f>
         <v>-1</v>
@@ -14106,8 +14216,12 @@
       <c r="B26" s="216">
         <v>11</v>
       </c>
-      <c r="C26" s="217"/>
-      <c r="E26" s="217"/>
+      <c r="C26" s="515" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E26" s="515" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G26" s="214">
         <f>((E26-C26)*24)-1</f>
         <v>-1</v>
@@ -14117,8 +14231,12 @@
       <c r="B27" s="216">
         <v>12</v>
       </c>
-      <c r="C27" s="217"/>
-      <c r="E27" s="217"/>
+      <c r="C27" s="515" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E27" s="515" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G27" s="214">
         <f>((E27-C27)*24)-1</f>
         <v>-1</v>
@@ -14128,8 +14246,12 @@
       <c r="B28" s="216">
         <v>13</v>
       </c>
-      <c r="C28" s="217"/>
-      <c r="E28" s="217"/>
+      <c r="C28" s="515" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E28" s="515" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G28" s="214">
         <f>((E28-C28)*24)-1</f>
         <v>-1</v>
@@ -14159,8 +14281,12 @@
       <c r="B31" s="216">
         <v>16</v>
       </c>
-      <c r="C31" s="217"/>
-      <c r="E31" s="217"/>
+      <c r="C31" s="515" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E31" s="515" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G31" s="214">
         <f>((E31-C31)*24)-1</f>
         <v>-1</v>
@@ -14170,8 +14296,12 @@
       <c r="B32" s="216">
         <v>17</v>
       </c>
-      <c r="C32" s="217"/>
-      <c r="E32" s="217"/>
+      <c r="C32" s="515" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E32" s="515" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G32" s="214">
         <f>((E32-C32)*24)-1</f>
         <v>-1</v>
@@ -14181,8 +14311,12 @@
       <c r="B33" s="216">
         <v>18</v>
       </c>
-      <c r="C33" s="217"/>
-      <c r="E33" s="217"/>
+      <c r="C33" s="515" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E33" s="515" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G33" s="214">
         <f>((E33-C33)*24)-1</f>
         <v>-1</v>
@@ -14192,8 +14326,12 @@
       <c r="B34" s="216">
         <v>19</v>
       </c>
-      <c r="C34" s="217"/>
-      <c r="E34" s="217"/>
+      <c r="C34" s="515" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E34" s="515" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G34" s="214">
         <f>((E34-C34)*24)-1</f>
         <v>-1</v>
@@ -14203,8 +14341,12 @@
       <c r="B35" s="216">
         <v>20</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="E35" s="217"/>
+      <c r="C35" s="515" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E35" s="515" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G35" s="214">
         <f>((E35-C35)*24)-1</f>
         <v>-1</v>
@@ -14234,8 +14376,12 @@
       <c r="B38" s="216">
         <v>23</v>
       </c>
-      <c r="C38" s="217"/>
-      <c r="E38" s="217"/>
+      <c r="C38" s="515" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E38" s="515" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G38" s="214">
         <f>((E38-C38)*24)-1</f>
         <v>-1</v>
@@ -14245,8 +14391,12 @@
       <c r="B39" s="216">
         <v>24</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="E39" s="217"/>
+      <c r="C39" s="515" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E39" s="515" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G39" s="214">
         <f>((E39-C39)*24)-1</f>
         <v>-1</v>
@@ -14256,8 +14406,12 @@
       <c r="B40" s="216">
         <v>25</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="E40" s="217"/>
+      <c r="C40" s="515" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E40" s="515" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G40" s="214">
         <f>((E40-C40)*24)-1</f>
         <v>-1</v>
@@ -14267,8 +14421,12 @@
       <c r="B41" s="216">
         <v>26</v>
       </c>
-      <c r="C41" s="217"/>
-      <c r="E41" s="217"/>
+      <c r="C41" s="515" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E41" s="515" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G41" s="214">
         <f>((E41-C41)*24)-1</f>
         <v>-1</v>
@@ -14278,8 +14436,12 @@
       <c r="B42" s="216">
         <v>27</v>
       </c>
-      <c r="C42" s="217"/>
-      <c r="E42" s="217"/>
+      <c r="C42" s="515" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E42" s="515" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G42" s="214">
         <f>((E42-C42)*24)-1</f>
         <v>-1</v>
@@ -14309,8 +14471,12 @@
       <c r="B45" s="216">
         <v>30</v>
       </c>
-      <c r="C45" s="217"/>
-      <c r="E45" s="217"/>
+      <c r="C45" s="515" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E45" s="515" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G45" s="214">
         <f>((E45-C45)*24)-1</f>
         <v>-1</v>
@@ -14320,8 +14486,12 @@
       <c r="B46" s="216">
         <v>31</v>
       </c>
-      <c r="C46" s="217"/>
-      <c r="E46" s="217"/>
+      <c r="C46" s="515" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E46" s="515" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G46" s="214">
         <f>((E46-C46)*24)-1</f>
         <v>-1</v>
@@ -14416,6 +14586,7 @@
       <c r="H62" s="432"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -14594,8 +14765,12 @@
       <c r="B16" s="240">
         <v>1</v>
       </c>
-      <c r="C16" s="241"/>
-      <c r="E16" s="241"/>
+      <c r="C16" s="525" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E16" s="525" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G16" s="238">
         <f>((E16-C16)*24)-1</f>
         <v>-1</v>
@@ -14605,8 +14780,12 @@
       <c r="B17" s="240">
         <v>2</v>
       </c>
-      <c r="C17" s="241"/>
-      <c r="E17" s="241"/>
+      <c r="C17" s="525" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E17" s="525" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G17" s="238">
         <f>((E17-C17)*24)-1</f>
         <v>-1</v>
@@ -14616,8 +14795,12 @@
       <c r="B18" s="240">
         <v>3</v>
       </c>
-      <c r="C18" s="241"/>
-      <c r="E18" s="241"/>
+      <c r="C18" s="525" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E18" s="525" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G18" s="238">
         <f>((E18-C18)*24)-1</f>
         <v>-1</v>
@@ -14647,8 +14830,12 @@
       <c r="B21" s="240">
         <v>6</v>
       </c>
-      <c r="C21" s="241"/>
-      <c r="E21" s="241"/>
+      <c r="C21" s="525" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E21" s="525" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G21" s="238">
         <f>((E21-C21)*24)-1</f>
         <v>-1</v>
@@ -14658,8 +14845,12 @@
       <c r="B22" s="240">
         <v>7</v>
       </c>
-      <c r="C22" s="241"/>
-      <c r="E22" s="241"/>
+      <c r="C22" s="525" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E22" s="525" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G22" s="238">
         <f>((E22-C22)*24)-1</f>
         <v>-1</v>
@@ -14669,8 +14860,12 @@
       <c r="B23" s="240">
         <v>8</v>
       </c>
-      <c r="C23" s="241"/>
-      <c r="E23" s="241"/>
+      <c r="C23" s="525" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E23" s="525" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G23" s="238">
         <f>((E23-C23)*24)-1</f>
         <v>-1</v>
@@ -14680,8 +14875,12 @@
       <c r="B24" s="240">
         <v>9</v>
       </c>
-      <c r="C24" s="241"/>
-      <c r="E24" s="241"/>
+      <c r="C24" s="525" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E24" s="525" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G24" s="238">
         <f>((E24-C24)*24)-1</f>
         <v>-1</v>
@@ -14691,8 +14890,12 @@
       <c r="B25" s="240">
         <v>10</v>
       </c>
-      <c r="C25" s="241"/>
-      <c r="E25" s="241"/>
+      <c r="C25" s="525" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E25" s="525" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G25" s="238">
         <f>((E25-C25)*24)-1</f>
         <v>-1</v>
@@ -14722,8 +14925,12 @@
       <c r="B28" s="240">
         <v>13</v>
       </c>
-      <c r="C28" s="241"/>
-      <c r="E28" s="241"/>
+      <c r="C28" s="525" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E28" s="525" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G28" s="238">
         <f>((E28-C28)*24)-1</f>
         <v>-1</v>
@@ -14733,8 +14940,12 @@
       <c r="B29" s="240">
         <v>14</v>
       </c>
-      <c r="C29" s="241"/>
-      <c r="E29" s="241"/>
+      <c r="C29" s="525" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E29" s="525" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G29" s="238">
         <f>((E29-C29)*24)-1</f>
         <v>-1</v>
@@ -14744,8 +14955,12 @@
       <c r="B30" s="240">
         <v>15</v>
       </c>
-      <c r="C30" s="241"/>
-      <c r="E30" s="241"/>
+      <c r="C30" s="525" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E30" s="525" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G30" s="238">
         <f>((E30-C30)*24)-1</f>
         <v>-1</v>
@@ -14755,8 +14970,12 @@
       <c r="B31" s="240">
         <v>16</v>
       </c>
-      <c r="C31" s="241"/>
-      <c r="E31" s="241"/>
+      <c r="C31" s="525" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E31" s="525" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G31" s="238">
         <f>((E31-C31)*24)-1</f>
         <v>-1</v>
@@ -14766,8 +14985,12 @@
       <c r="B32" s="240">
         <v>17</v>
       </c>
-      <c r="C32" s="241"/>
-      <c r="E32" s="241"/>
+      <c r="C32" s="525" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E32" s="525" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G32" s="238">
         <f>((E32-C32)*24)-1</f>
         <v>-1</v>
@@ -14797,8 +15020,12 @@
       <c r="B35" s="240">
         <v>20</v>
       </c>
-      <c r="C35" s="241"/>
-      <c r="E35" s="241"/>
+      <c r="C35" s="525" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E35" s="525" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G35" s="238">
         <f>((E35-C35)*24)-1</f>
         <v>-1</v>
@@ -14808,8 +15035,12 @@
       <c r="B36" s="240">
         <v>21</v>
       </c>
-      <c r="C36" s="241"/>
-      <c r="E36" s="241"/>
+      <c r="C36" s="525" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E36" s="525" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G36" s="238">
         <f>((E36-C36)*24)-1</f>
         <v>-1</v>
@@ -14819,8 +15050,12 @@
       <c r="B37" s="240">
         <v>22</v>
       </c>
-      <c r="C37" s="241"/>
-      <c r="E37" s="241"/>
+      <c r="C37" s="525" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E37" s="525" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G37" s="238">
         <f>((E37-C37)*24)-1</f>
         <v>-1</v>
@@ -14830,8 +15065,12 @@
       <c r="B38" s="240">
         <v>23</v>
       </c>
-      <c r="C38" s="241"/>
-      <c r="E38" s="241"/>
+      <c r="C38" s="525" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E38" s="525" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G38" s="238">
         <f>((E38-C38)*24)-1</f>
         <v>-1</v>
@@ -14841,8 +15080,12 @@
       <c r="B39" s="240">
         <v>24</v>
       </c>
-      <c r="C39" s="241"/>
-      <c r="E39" s="241"/>
+      <c r="C39" s="525" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E39" s="525" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G39" s="238">
         <f>((E39-C39)*24)-1</f>
         <v>-1</v>
@@ -14872,8 +15115,12 @@
       <c r="B42" s="240">
         <v>27</v>
       </c>
-      <c r="C42" s="241"/>
-      <c r="E42" s="241"/>
+      <c r="C42" s="525" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E42" s="525" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G42" s="238">
         <f>((E42-C42)*24)-1</f>
         <v>-1</v>
@@ -14883,8 +15130,12 @@
       <c r="B43" s="240">
         <v>28</v>
       </c>
-      <c r="C43" s="241"/>
-      <c r="E43" s="241"/>
+      <c r="C43" s="525" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E43" s="525" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G43" s="238">
         <f>((E43-C43)*24)-1</f>
         <v>-1</v>
@@ -14894,8 +15145,12 @@
       <c r="B44" s="240">
         <v>29</v>
       </c>
-      <c r="C44" s="241"/>
-      <c r="E44" s="241"/>
+      <c r="C44" s="525" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E44" s="525" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G44" s="238">
         <f>((E44-C44)*24)-1</f>
         <v>-1</v>
@@ -14905,8 +15160,12 @@
       <c r="B45" s="240">
         <v>30</v>
       </c>
-      <c r="C45" s="241"/>
-      <c r="E45" s="241"/>
+      <c r="C45" s="525" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E45" s="525" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G45" s="238">
         <f>((E45-C45)*24)-1</f>
         <v>-1</v>
@@ -15001,6 +15260,7 @@
       <c r="H62" s="440"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -15174,8 +15434,12 @@
       <c r="B16" s="262">
         <v>1</v>
       </c>
-      <c r="C16" s="263"/>
-      <c r="E16" s="263"/>
+      <c r="C16" s="526" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E16" s="526" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G16" s="260">
         <f>((E16-C16)*24)-1</f>
         <v>-1</v>
@@ -15205,8 +15469,12 @@
       <c r="B19" s="262">
         <v>4</v>
       </c>
-      <c r="C19" s="263"/>
-      <c r="E19" s="263"/>
+      <c r="C19" s="526" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E19" s="526" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G19" s="260">
         <f>((E19-C19)*24)-1</f>
         <v>-1</v>
@@ -15216,8 +15484,12 @@
       <c r="B20" s="262">
         <v>5</v>
       </c>
-      <c r="C20" s="263"/>
-      <c r="E20" s="263"/>
+      <c r="C20" s="526" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E20" s="526" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G20" s="260">
         <f>((E20-C20)*24)-1</f>
         <v>-1</v>
@@ -15227,8 +15499,12 @@
       <c r="B21" s="262">
         <v>6</v>
       </c>
-      <c r="C21" s="263"/>
-      <c r="E21" s="263"/>
+      <c r="C21" s="526" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E21" s="526" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G21" s="260">
         <f>((E21-C21)*24)-1</f>
         <v>-1</v>
@@ -15238,8 +15514,12 @@
       <c r="B22" s="262">
         <v>7</v>
       </c>
-      <c r="C22" s="263"/>
-      <c r="E22" s="263"/>
+      <c r="C22" s="526" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E22" s="526" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G22" s="260">
         <f>((E22-C22)*24)-1</f>
         <v>-1</v>
@@ -15249,8 +15529,12 @@
       <c r="B23" s="262">
         <v>8</v>
       </c>
-      <c r="C23" s="263"/>
-      <c r="E23" s="263"/>
+      <c r="C23" s="526" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E23" s="526" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G23" s="260">
         <f>((E23-C23)*24)-1</f>
         <v>-1</v>

--- a/config_files/Horarios/Palobiofarma, S.L Pamplona/Nerea Castrillo.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Pamplona/Nerea Castrillo.xlsx
@@ -2,6 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="2022" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="1" sheetId="2" r:id="rId5"/>
@@ -17,7 +20,6 @@
     <sheet state="visible" name="11" sheetId="12" r:id="rId15"/>
     <sheet state="visible" name="12" sheetId="13" r:id="rId16"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="118">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -376,6 +378,12 @@
   </si>
   <si>
     <t>Diciembre</t>
+  </si>
+  <si>
+    <t>VACACIONES</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1365,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="132">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1647,6 +1655,18 @@
     </xf>
     <xf borderId="31" fillId="15" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2255,20 +2275,21 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:AC1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.71"/>
-    <col customWidth="1" min="2" max="8" width="6.71"/>
-    <col customWidth="1" min="9" max="9" width="2.71"/>
-    <col customWidth="1" min="10" max="16" width="6.71"/>
-    <col customWidth="1" min="17" max="17" width="2.71"/>
-    <col customWidth="1" min="18" max="24" width="6.71"/>
-    <col customWidth="1" min="25" max="25" width="10.0"/>
-    <col customWidth="1" min="26" max="26" width="5.71"/>
-    <col customWidth="1" min="27" max="29" width="25.0"/>
+    <col min="1" max="1" customWidth="true" width="2.71" collapsed="true"/>
+    <col min="2" max="8" customWidth="true" width="6.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.71" collapsed="true"/>
+    <col min="10" max="16" customWidth="true" width="6.71" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.71" collapsed="true"/>
+    <col min="18" max="24" customWidth="true" width="6.71" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="5.71" collapsed="true"/>
+    <col min="27" max="29" customWidth="true" width="25.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1">
@@ -5220,24 +5241,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.86"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.86" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -5381,22 +5403,28 @@
       <c r="B16" s="126">
         <v>1.0</v>
       </c>
-      <c r="C16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="G16" s="110">
-        <f t="shared" ref="G16:G17" si="1">IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
-        <v>0</v>
+      <c r="C16" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="B17" s="126">
         <v>2.0</v>
       </c>
-      <c r="C17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="G17" s="110">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C17" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
@@ -6717,24 +6745,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.86"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.86" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -8221,24 +8250,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.86"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.86" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -9716,24 +9746,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.86"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.86" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -11219,24 +11250,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.86"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.86" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -12820,24 +12852,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.86"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.86" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -14410,24 +14443,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.86"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.86" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -16024,24 +16058,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.86"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.86" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -17608,24 +17643,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.86"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.86" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -19217,24 +19253,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.86"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.86" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -20806,24 +20843,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.86"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.86" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -20967,10 +21005,10 @@
       <c r="B16" s="126">
         <v>1.0</v>
       </c>
-      <c r="C16" s="114">
+      <c r="C16" s="129" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E16" s="114">
+      <c r="E16" s="129" t="n">
         <v>0.7083333333333334</v>
       </c>
       <c r="G16" s="110">
@@ -21002,10 +21040,10 @@
       <c r="B19" s="126">
         <v>4.0</v>
       </c>
-      <c r="C19" s="114">
+      <c r="C19" s="129" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E19" s="114">
+      <c r="E19" s="129" t="n">
         <v>0.7083333333333334</v>
       </c>
       <c r="G19" s="110">
@@ -21017,10 +21055,10 @@
       <c r="B20" s="126">
         <v>5.0</v>
       </c>
-      <c r="C20" s="114">
+      <c r="C20" s="129" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E20" s="114">
+      <c r="E20" s="129" t="n">
         <v>0.7083333333333334</v>
       </c>
       <c r="G20" s="110">
@@ -21032,10 +21070,10 @@
       <c r="B21" s="126">
         <v>6.0</v>
       </c>
-      <c r="C21" s="114">
+      <c r="C21" s="129" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E21" s="114">
+      <c r="E21" s="129" t="n">
         <v>0.7083333333333334</v>
       </c>
       <c r="G21" s="110">
@@ -21047,10 +21085,10 @@
       <c r="B22" s="126">
         <v>7.0</v>
       </c>
-      <c r="C22" s="114">
+      <c r="C22" s="129" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E22" s="114">
+      <c r="E22" s="129" t="n">
         <v>0.7083333333333334</v>
       </c>
       <c r="G22" s="110">
@@ -21062,10 +21100,10 @@
       <c r="B23" s="126">
         <v>8.0</v>
       </c>
-      <c r="C23" s="114">
+      <c r="C23" s="129" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E23" s="114">
+      <c r="E23" s="129" t="n">
         <v>0.7083333333333334</v>
       </c>
       <c r="G23" s="110">
@@ -21097,8 +21135,12 @@
       <c r="B26" s="126">
         <v>11.0</v>
       </c>
-      <c r="C26" s="113"/>
-      <c r="E26" s="113"/>
+      <c r="C26" s="129" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E26" s="129" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G26" s="110">
         <f t="shared" ref="G26:G30" si="2">IF((E26-C26)*24&lt;=4,(E26-C26)*24,(E26-C26)*24-1)</f>
         <v>0</v>
@@ -21108,8 +21150,12 @@
       <c r="B27" s="126">
         <v>12.0</v>
       </c>
-      <c r="C27" s="113"/>
-      <c r="E27" s="113"/>
+      <c r="C27" s="129" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E27" s="129" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G27" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21119,8 +21165,12 @@
       <c r="B28" s="126">
         <v>13.0</v>
       </c>
-      <c r="C28" s="113"/>
-      <c r="E28" s="113"/>
+      <c r="C28" s="129" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E28" s="129" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G28" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21130,8 +21180,12 @@
       <c r="B29" s="126">
         <v>14.0</v>
       </c>
-      <c r="C29" s="113"/>
-      <c r="E29" s="113"/>
+      <c r="C29" s="129" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E29" s="129" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G29" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21141,8 +21195,12 @@
       <c r="B30" s="126">
         <v>15.0</v>
       </c>
-      <c r="C30" s="113"/>
-      <c r="E30" s="113"/>
+      <c r="C30" s="129" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E30" s="129" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G30" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21172,8 +21230,12 @@
       <c r="B33" s="126">
         <v>18.0</v>
       </c>
-      <c r="C33" s="113"/>
-      <c r="E33" s="113"/>
+      <c r="C33" s="129" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E33" s="129" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G33" s="110">
         <f t="shared" ref="G33:G37" si="3">IF((E33-C33)*24&lt;=4,(E33-C33)*24,(E33-C33)*24-1)</f>
         <v>0</v>
@@ -21183,8 +21245,12 @@
       <c r="B34" s="126">
         <v>19.0</v>
       </c>
-      <c r="C34" s="113"/>
-      <c r="E34" s="113"/>
+      <c r="C34" s="129" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E34" s="129" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G34" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21194,8 +21260,12 @@
       <c r="B35" s="126">
         <v>20.0</v>
       </c>
-      <c r="C35" s="113"/>
-      <c r="E35" s="113"/>
+      <c r="C35" s="129" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E35" s="129" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G35" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21205,8 +21275,12 @@
       <c r="B36" s="126">
         <v>21.0</v>
       </c>
-      <c r="C36" s="113"/>
-      <c r="E36" s="113"/>
+      <c r="C36" s="129" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E36" s="129" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G36" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21216,11 +21290,14 @@
       <c r="B37" s="126">
         <v>22.0</v>
       </c>
-      <c r="C37" s="113"/>
-      <c r="E37" s="113"/>
-      <c r="G37" s="110">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C37" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="G37" s="110" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
@@ -21257,8 +21334,12 @@
       <c r="B41" s="126">
         <v>26.0</v>
       </c>
-      <c r="C41" s="113"/>
-      <c r="E41" s="113"/>
+      <c r="C41" s="129" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E41" s="129" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G41" s="110">
         <f t="shared" ref="G41:G44" si="4">IF((E41-C41)*24&lt;=4,(E41-C41)*24,(E41-C41)*24-1)</f>
         <v>0</v>
@@ -21268,8 +21349,12 @@
       <c r="B42" s="126">
         <v>27.0</v>
       </c>
-      <c r="C42" s="113"/>
-      <c r="E42" s="113"/>
+      <c r="C42" s="129" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E42" s="129" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G42" s="110">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -21279,8 +21364,12 @@
       <c r="B43" s="126">
         <v>28.0</v>
       </c>
-      <c r="C43" s="113"/>
-      <c r="E43" s="113"/>
+      <c r="C43" s="129" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E43" s="129" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G43" s="110">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -21290,8 +21379,12 @@
       <c r="B44" s="126">
         <v>29.0</v>
       </c>
-      <c r="C44" s="113"/>
-      <c r="E44" s="113"/>
+      <c r="C44" s="129" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E44" s="129" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G44" s="110">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -22334,24 +22427,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.86"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.86" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -22655,44 +22749,56 @@
       <c r="B31" s="126">
         <v>16.0</v>
       </c>
-      <c r="C31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="G31" s="110">
-        <f t="shared" ref="G31:G34" si="3">IF((E31-C31)*24&lt;=4,(E31-C31)*24,(E31-C31)*24-1)</f>
-        <v>0</v>
+      <c r="C31" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="B32" s="126">
         <v>17.0</v>
       </c>
-      <c r="C32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="G32" s="110">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C32" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="B33" s="126">
         <v>18.0</v>
       </c>
-      <c r="C33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="G33" s="110">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C33" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="B34" s="126">
         <v>19.0</v>
       </c>
-      <c r="C34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="G34" s="110">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C34" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
@@ -22719,55 +22825,70 @@
       <c r="B37" s="126">
         <v>22.0</v>
       </c>
-      <c r="C37" s="113"/>
-      <c r="E37" s="113"/>
-      <c r="G37" s="110">
-        <f t="shared" ref="G37:G41" si="4">IF((E37-C37)*24&lt;=4,(E37-C37)*24,(E37-C37)*24-1)</f>
-        <v>0</v>
+      <c r="C37" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="B38" s="126">
         <v>23.0</v>
       </c>
-      <c r="C38" s="113"/>
-      <c r="E38" s="113"/>
-      <c r="G38" s="110">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C38" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="B39" s="126">
         <v>24.0</v>
       </c>
-      <c r="C39" s="113"/>
-      <c r="E39" s="113"/>
-      <c r="G39" s="110">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C39" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="B40" s="126">
         <v>25.0</v>
       </c>
-      <c r="C40" s="113"/>
-      <c r="E40" s="113"/>
-      <c r="G40" s="110">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C40" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="B41" s="126">
         <v>26.0</v>
       </c>
-      <c r="C41" s="113"/>
-      <c r="E41" s="113"/>
-      <c r="G41" s="110">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C41" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
@@ -22794,33 +22915,42 @@
       <c r="B44" s="126">
         <v>29.0</v>
       </c>
-      <c r="C44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="G44" s="110">
-        <f t="shared" ref="G44:G46" si="5">IF((E44-C44)*24&lt;=4,(E44-C44)*24,(E44-C44)*24-1)</f>
-        <v>0</v>
+      <c r="C44" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="B45" s="126">
         <v>30.0</v>
       </c>
-      <c r="C45" s="113"/>
-      <c r="E45" s="113"/>
-      <c r="G45" s="110">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C45" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="B46" s="126">
         <v>31.0</v>
       </c>
-      <c r="C46" s="113"/>
-      <c r="E46" s="113"/>
-      <c r="G46" s="110">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C46" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">

--- a/config_files/Horarios/Palobiofarma, S.L Pamplona/Nerea Castrillo.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Pamplona/Nerea Castrillo.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="119">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>vacaciones</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1368,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="143">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1655,6 +1658,39 @@
     </xf>
     <xf borderId="31" fillId="15" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="center"/>
@@ -5451,8 +5487,12 @@
       <c r="B20" s="126">
         <v>5.0</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="E20" s="113"/>
+      <c r="C20" s="142" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E20" s="142" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G20" s="110">
         <f t="shared" ref="G20:G24" si="2">IF((E20-C20)*24&lt;=4,(E20-C20)*24,(E20-C20)*24-1)</f>
         <v>0</v>
@@ -5462,8 +5502,12 @@
       <c r="B21" s="126">
         <v>6.0</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="E21" s="113"/>
+      <c r="C21" s="142" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E21" s="142" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G21" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5473,8 +5517,12 @@
       <c r="B22" s="126">
         <v>7.0</v>
       </c>
-      <c r="C22" s="113"/>
-      <c r="E22" s="113"/>
+      <c r="C22" s="142" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E22" s="142" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G22" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5484,8 +5532,12 @@
       <c r="B23" s="126">
         <v>8.0</v>
       </c>
-      <c r="C23" s="113"/>
-      <c r="E23" s="113"/>
+      <c r="C23" s="142" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E23" s="142" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G23" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5495,11 +5547,14 @@
       <c r="B24" s="126">
         <v>9.0</v>
       </c>
-      <c r="C24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="G24" s="110">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C24" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="110" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
@@ -5526,8 +5581,12 @@
       <c r="B27" s="126">
         <v>12.0</v>
       </c>
-      <c r="C27" s="113"/>
-      <c r="E27" s="113"/>
+      <c r="C27" s="142" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E27" s="142" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G27" s="110">
         <f t="shared" ref="G27:G31" si="3">IF((E27-C27)*24&lt;=4,(E27-C27)*24,(E27-C27)*24-1)</f>
         <v>0</v>
@@ -5537,8 +5596,12 @@
       <c r="B28" s="126">
         <v>13.0</v>
       </c>
-      <c r="C28" s="113"/>
-      <c r="E28" s="113"/>
+      <c r="C28" s="142" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E28" s="142" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G28" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5548,8 +5611,12 @@
       <c r="B29" s="126">
         <v>14.0</v>
       </c>
-      <c r="C29" s="113"/>
-      <c r="E29" s="113"/>
+      <c r="C29" s="142" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E29" s="142" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G29" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5559,8 +5626,12 @@
       <c r="B30" s="126">
         <v>15.0</v>
       </c>
-      <c r="C30" s="113"/>
-      <c r="E30" s="113"/>
+      <c r="C30" s="142" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E30" s="142" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G30" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5570,8 +5641,12 @@
       <c r="B31" s="126">
         <v>16.0</v>
       </c>
-      <c r="C31" s="113"/>
-      <c r="E31" s="113"/>
+      <c r="C31" s="142" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E31" s="142" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G31" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5601,8 +5676,12 @@
       <c r="B34" s="126">
         <v>19.0</v>
       </c>
-      <c r="C34" s="113"/>
-      <c r="E34" s="113"/>
+      <c r="C34" s="142" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E34" s="142" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G34" s="110">
         <f t="shared" ref="G34:G38" si="4">IF((E34-C34)*24&lt;=4,(E34-C34)*24,(E34-C34)*24-1)</f>
         <v>0</v>
@@ -5612,8 +5691,12 @@
       <c r="B35" s="126">
         <v>20.0</v>
       </c>
-      <c r="C35" s="113"/>
-      <c r="E35" s="113"/>
+      <c r="C35" s="142" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E35" s="142" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G35" s="110">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5623,8 +5706,12 @@
       <c r="B36" s="126">
         <v>21.0</v>
       </c>
-      <c r="C36" s="113"/>
-      <c r="E36" s="113"/>
+      <c r="C36" s="142" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E36" s="142" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G36" s="110">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5634,8 +5721,12 @@
       <c r="B37" s="126">
         <v>22.0</v>
       </c>
-      <c r="C37" s="113"/>
-      <c r="E37" s="113"/>
+      <c r="C37" s="142" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E37" s="142" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G37" s="110">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5645,8 +5736,12 @@
       <c r="B38" s="126">
         <v>23.0</v>
       </c>
-      <c r="C38" s="113"/>
-      <c r="E38" s="113"/>
+      <c r="C38" s="142" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E38" s="142" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G38" s="110">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12831,6 +12926,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -14422,6 +14518,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -16037,6 +16134,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -17622,6 +17720,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -19232,6 +19331,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -20822,6 +20922,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -22406,6 +22507,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -22589,8 +22691,12 @@
       <c r="B16" s="126">
         <v>1.0</v>
       </c>
-      <c r="C16" s="113"/>
-      <c r="E16" s="113"/>
+      <c r="C16" s="134" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E16" s="134" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G16" s="110">
         <f t="shared" ref="G16:G20" si="1">IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
         <v>0</v>
@@ -22600,8 +22706,12 @@
       <c r="B17" s="126">
         <v>2.0</v>
       </c>
-      <c r="C17" s="113"/>
-      <c r="E17" s="113"/>
+      <c r="C17" s="134" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E17" s="134" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G17" s="110">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22611,8 +22721,12 @@
       <c r="B18" s="126">
         <v>3.0</v>
       </c>
-      <c r="C18" s="113"/>
-      <c r="E18" s="113"/>
+      <c r="C18" s="134" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E18" s="134" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G18" s="110">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22622,8 +22736,12 @@
       <c r="B19" s="126">
         <v>4.0</v>
       </c>
-      <c r="C19" s="113"/>
-      <c r="E19" s="113"/>
+      <c r="C19" s="134" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E19" s="134" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G19" s="110">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22633,8 +22751,12 @@
       <c r="B20" s="126">
         <v>5.0</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="E20" s="113"/>
+      <c r="C20" s="134" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E20" s="134" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G20" s="110">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22664,8 +22786,12 @@
       <c r="B23" s="126">
         <v>8.0</v>
       </c>
-      <c r="C23" s="113"/>
-      <c r="E23" s="113"/>
+      <c r="C23" s="134" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E23" s="134" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G23" s="110">
         <f t="shared" ref="G23:G27" si="2">IF((E23-C23)*24&lt;=4,(E23-C23)*24,(E23-C23)*24-1)</f>
         <v>0</v>
@@ -22675,8 +22801,12 @@
       <c r="B24" s="126">
         <v>9.0</v>
       </c>
-      <c r="C24" s="113"/>
-      <c r="E24" s="113"/>
+      <c r="C24" s="134" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E24" s="134" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G24" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -22686,8 +22816,12 @@
       <c r="B25" s="126">
         <v>10.0</v>
       </c>
-      <c r="C25" s="113"/>
-      <c r="E25" s="113"/>
+      <c r="C25" s="134" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E25" s="134" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G25" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -22697,8 +22831,12 @@
       <c r="B26" s="126">
         <v>11.0</v>
       </c>
-      <c r="C26" s="113"/>
-      <c r="E26" s="113"/>
+      <c r="C26" s="134" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E26" s="134" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G26" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -22708,8 +22846,12 @@
       <c r="B27" s="126">
         <v>12.0</v>
       </c>
-      <c r="C27" s="113"/>
-      <c r="E27" s="113"/>
+      <c r="C27" s="134" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E27" s="134" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G27" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -23949,6 +24091,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
